--- a/NelsonCuervo/Sprint3/journal d'abord Nelson Cuervo.xlsx
+++ b/NelsonCuervo/Sprint3/journal d'abord Nelson Cuervo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Dropbox\PC\Desktop\DEVELOPPEMENT-APPLICATIOS\projetChantier\NelsonCuervo\Sprint2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Dropbox\PC\Desktop\DEVELOPPEMENT-APPLICATIOS\projetChantier\NelsonCuervo\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F057237B-47B7-403F-9E0A-BF9315456AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7D340-CFC0-402B-805B-BED0C54FDD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E6CA233-FC79-442E-BFA8-A030C94426C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4E6CA233-FC79-442E-BFA8-A030C94426C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
   <si>
     <t>Nelson Alfonso Cuervo Caviedes</t>
   </si>
@@ -154,16 +154,122 @@
   </si>
   <si>
     <t>30 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste des ouvriers : </t>
+  </si>
+  <si>
+    <t>Boîte de texte de liaison</t>
+  </si>
+  <si>
+    <t>Boutons (fonctionnels)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date Embauche changer le type de textbox en DatePicker (Binding)</t>
+  </si>
+  <si>
+    <t>Equipe ID changer de textbox à Combo box (Binding)</t>
+  </si>
+  <si>
+    <t>Vérifiez la nouvelle instance Employe dans le champ ID Employe et la base de données</t>
+  </si>
+  <si>
+    <t>Try -  Catch, vérifier la sélection de l'id dans la combobox.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste des ouvrages : </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ListView = Adjust Binding.  - OK - DATE OUVRAGE CHANGER TYPE </t>
+  </si>
+  <si>
+    <t>Date Ouvrage changer le type de textbox en DatePicker (Binding)</t>
+  </si>
+  <si>
+    <t>Fin Ouvrage changer le type de textbox en DatePicker (Binding)</t>
+  </si>
+  <si>
+    <t>Equipe ID = Set Binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implémenter deux nouvelles ListView :
+</t>
+  </si>
+  <si>
+    <t>1. montrer les employés impliqués dans le chantier.</t>
+  </si>
+  <si>
+    <t>2. montrer les matériaux utilisés sur le projet de construction.</t>
+  </si>
+  <si>
+    <t>Liste Materiaux (ListeLivraisons)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ouvrage ID change de textbox à Combo box (Binding)</t>
+  </si>
+  <si>
+    <t>Date Reception change type textbox to DatePicker (Binding)</t>
+  </si>
+  <si>
+    <t>Équipe de chefs :</t>
+  </si>
+  <si>
+    <t>Développer l'interface, les contrôleurs et les événements</t>
+  </si>
+  <si>
+    <t>Connexion à la base de données</t>
+  </si>
+  <si>
+    <t>Session personnalisée (connexion de l'utilisateur à la base de données, à l'équipe, aux projets et aux employés)</t>
+  </si>
+  <si>
+    <t>Ajuster les événements des boutons et des listes (Biding)</t>
+  </si>
+  <si>
+    <t>Créer une connexion entre l'événement de sélection de la liste principale (projets) et les deux listes secondaires (employés, matériaux).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction des bugs : </t>
+  </si>
+  <si>
+    <t>Vérifiez que tous les champs de saisie de toutes les interfaces sont correctement remplis par l'utilisateur.</t>
+  </si>
+  <si>
+    <t>1/26/2023 - 1/28/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réunion avec Leonel Serrano pour vérifier les fonctionnalités et publier l'application via le web et en local. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réunion d'équipe pour montrer l'avancement, les fonctionnalités, les technologies et les processus utilisés dans la construction de l'application. </t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>31H</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,6 +308,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,17 +632,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72050F50-CF0C-4E9B-ADE3-1D6CB7D01C36}">
-  <dimension ref="B4:E37"/>
+  <dimension ref="B4:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="132.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -704,7 +820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>7</v>
       </c>
@@ -718,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>8</v>
       </c>
@@ -877,7 +993,413 @@
         <v>42</v>
       </c>
     </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>19</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>21</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>22</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>24</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>26</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>27</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>29</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>32</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>33</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <v>36</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <v>37</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <v>38</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>39</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>40</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <v>41</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <v>42</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>43</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>44</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <v>45</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>46</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>47</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <v>48</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <v>49</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <v>50</v>
+      </c>
+      <c r="C69" s="5">
+        <v>44961</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <v>51</v>
+      </c>
+      <c r="C70" s="5">
+        <v>44966</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E38:E68"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NelsonCuervo/Sprint3/journal d'abord Nelson Cuervo.xlsx
+++ b/NelsonCuervo/Sprint3/journal d'abord Nelson Cuervo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Dropbox\PC\Desktop\DEVELOPPEMENT-APPLICATIOS\projetChantier\NelsonCuervo\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7D340-CFC0-402B-805B-BED0C54FDD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB3E461-AC78-4D02-8CD6-05C174AC86AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4E6CA233-FC79-442E-BFA8-A030C94426C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E6CA233-FC79-442E-BFA8-A030C94426C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
   <si>
     <t>Nelson Alfonso Cuervo Caviedes</t>
   </si>
@@ -248,6 +248,13 @@
   </si>
   <si>
     <t>31H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de vidéos explicatives </t>
+  </si>
+  <si>
+    <t xml:space="preserve">réunion avec Leonel pour finaliser les détails de l'application et sa présentation
+</t>
   </si>
 </sst>
 </file>
@@ -295,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -308,8 +315,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -317,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72050F50-CF0C-4E9B-ADE3-1D6CB7D01C36}">
-  <dimension ref="B4:E70"/>
+  <dimension ref="B4:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>7</v>
       </c>
@@ -1393,6 +1403,34 @@
       </c>
       <c r="E70" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="2">
+        <v>52</v>
+      </c>
+      <c r="C71" s="5">
+        <v>44967</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>53</v>
+      </c>
+      <c r="C72" s="5">
+        <v>44967</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
